--- a/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A782429D-979D-4F18-AE96-D869320D566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5467A622-BA0C-4EA8-B744-9E5E748C1516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3691145E-AE81-4F08-A315-6DD8673288C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3F27580-7EF2-49DE-9E54-CD4988760BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="657">
   <si>
     <t>Índice de masa corporal (recodificación OMS) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1957 +77,1939 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>Sobrepeso</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>Bajo peso</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>Obesidad</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>Sobrepeso</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>Bajo peso</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4920AFC1-C9D6-444A-9579-244648E1A89B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1090C36C-E7E1-46D8-AE10-7374382FAA42}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2803,7 +2785,7 @@
         <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2800,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2833,13 +2815,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2848,18 +2830,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2871,13 +2853,13 @@
         <v>8839</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2886,13 +2868,13 @@
         <v>12368</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2901,7 +2883,7 @@
         <v>21207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>67</v>
@@ -3081,7 +3063,7 @@
         <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -3090,13 +3072,13 @@
         <v>53728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -3105,13 +3087,13 @@
         <v>62200</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3108,13 @@
         <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3141,13 +3123,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3156,18 +3138,18 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3179,13 +3161,13 @@
         <v>4443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3194,13 +3176,13 @@
         <v>3823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3209,13 +3191,13 @@
         <v>8266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3212,13 @@
         <v>50931</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -3245,13 +3227,13 @@
         <v>31877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -3260,13 +3242,13 @@
         <v>82809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3263,13 @@
         <v>245463</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -3296,13 +3278,13 @@
         <v>98232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>332</v>
@@ -3311,13 +3293,13 @@
         <v>343695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3314,13 @@
         <v>250571</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>305</v>
@@ -3347,13 +3329,13 @@
         <v>321880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>544</v>
@@ -3362,13 +3344,13 @@
         <v>572450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -3398,13 +3380,13 @@
         <v>20600</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3413,13 +3395,13 @@
         <v>20599</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3416,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3449,13 +3431,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3464,13 +3446,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,10 +3472,10 @@
         <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3502,13 +3484,13 @@
         <v>46219</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -3517,13 +3499,13 @@
         <v>78683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3520,13 @@
         <v>395452</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>483</v>
@@ -3553,28 +3535,28 @@
         <v>497311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>868</v>
       </c>
       <c r="N23" s="7">
-        <v>892762</v>
+        <v>892763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3571,13 @@
         <v>1529093</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>1057</v>
@@ -3604,13 +3586,13 @@
         <v>1077732</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>2576</v>
@@ -3619,13 +3601,13 @@
         <v>2606825</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3622,13 @@
         <v>1301200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1628</v>
@@ -3655,13 +3637,13 @@
         <v>1670275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>2888</v>
@@ -3670,13 +3652,13 @@
         <v>2971474</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3673,13 @@
         <v>18335</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -3706,13 +3688,13 @@
         <v>87661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -3721,13 +3703,13 @@
         <v>105996</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3724,13 @@
         <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3757,33 +3739,33 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3802,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A943BA9-28ED-4977-AE95-3CCF2ABDF371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D594A6BD-DF3A-4AC5-9559-CDB89FE3094C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3819,7 +3801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3926,13 +3908,13 @@
         <v>33082</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3941,13 +3923,13 @@
         <v>101140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
@@ -3956,13 +3938,13 @@
         <v>134222</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3959,13 @@
         <v>233536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -3992,13 +3974,13 @@
         <v>428399</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>617</v>
@@ -4007,13 +3989,13 @@
         <v>661935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4010,13 @@
         <v>454900</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>468</v>
@@ -4043,13 +4025,13 @@
         <v>500402</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>891</v>
@@ -4058,13 +4040,13 @@
         <v>955302</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4061,13 @@
         <v>245043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -4094,13 +4076,13 @@
         <v>303789</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>510</v>
@@ -4109,13 +4091,13 @@
         <v>548832</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4112,13 @@
         <v>8082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4145,13 +4127,13 @@
         <v>4067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4160,7 +4142,7 @@
         <v>12149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>234</v>
@@ -4181,13 +4163,13 @@
         <v>974643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1247</v>
@@ -4196,13 +4178,13 @@
         <v>1337796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2155</v>
@@ -4211,18 +4193,18 @@
         <v>2312440</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4234,13 +4216,13 @@
         <v>23079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4249,13 +4231,13 @@
         <v>45545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4264,10 +4246,10 @@
         <v>68624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>240</v>
@@ -4420,10 +4402,10 @@
         <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4420,13 @@
         <v>22020</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4453,13 +4435,13 @@
         <v>64301</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4468,13 +4450,13 @@
         <v>86321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4471,13 @@
         <v>1963957</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1635</v>
@@ -4504,13 +4486,13 @@
         <v>1757803</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3491</v>
@@ -4519,18 +4501,18 @@
         <v>3721760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4542,13 +4524,13 @@
         <v>9248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4557,13 +4539,13 @@
         <v>4083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4572,13 +4554,13 @@
         <v>13331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4575,13 @@
         <v>49615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4608,13 +4590,13 @@
         <v>28124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4623,13 +4605,13 @@
         <v>77739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4626,13 @@
         <v>226736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -4659,13 +4641,13 @@
         <v>105078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>306</v>
@@ -4674,13 +4656,13 @@
         <v>331814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4677,13 @@
         <v>194628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -4710,13 +4692,13 @@
         <v>305925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -4725,13 +4707,13 @@
         <v>500553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4728,13 @@
         <v>954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -4761,13 +4743,13 @@
         <v>15421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -4776,13 +4758,13 @@
         <v>16375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4779,13 @@
         <v>481181</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4812,13 +4794,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>850</v>
@@ -4827,13 +4809,13 @@
         <v>939812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4832,13 @@
         <v>65409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>142</v>
@@ -4865,13 +4847,13 @@
         <v>150767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>201</v>
@@ -4880,13 +4862,13 @@
         <v>216177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4883,13 @@
         <v>554408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>668</v>
@@ -4916,13 +4898,13 @@
         <v>716952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -4931,13 +4913,13 @@
         <v>1271361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4934,13 @@
         <v>1639614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>1046</v>
@@ -4967,13 +4949,13 @@
         <v>1131286</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>2580</v>
@@ -4982,13 +4964,13 @@
         <v>2770900</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4985,13 @@
         <v>1129295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>1356</v>
@@ -5018,13 +5000,13 @@
         <v>1471436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>2425</v>
@@ -5033,13 +5015,13 @@
         <v>2600731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5036,13 @@
         <v>31056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -5069,13 +5051,13 @@
         <v>83788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5087,10 +5069,10 @@
         <v>56</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5087,13 @@
         <v>3419782</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3294</v>
@@ -5120,13 +5102,13 @@
         <v>3554230</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6496</v>
@@ -5135,18 +5117,18 @@
         <v>6974012</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5165,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0DBEBF-B1AC-4BC9-AF56-171A916CEB97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A86A48-7F45-478B-A3AA-1A0981EF80D2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5182,7 +5164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5289,13 +5271,13 @@
         <v>43127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -5304,13 +5286,13 @@
         <v>111015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -5319,13 +5301,13 @@
         <v>154143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5322,13 @@
         <v>167939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -5355,13 +5337,13 @@
         <v>296210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>430</v>
@@ -5370,13 +5352,13 @@
         <v>464149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5373,13 @@
         <v>356514</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>320</v>
@@ -5406,13 +5388,13 @@
         <v>351398</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>685</v>
@@ -5421,13 +5403,13 @@
         <v>707911</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5424,13 @@
         <v>182912</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>209</v>
@@ -5457,13 +5439,13 @@
         <v>227548</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -5472,13 +5454,13 @@
         <v>410460</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5475,13 @@
         <v>3854</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5508,13 +5490,13 @@
         <v>8490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5523,13 +5505,13 @@
         <v>12344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>397</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5526,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>892</v>
@@ -5559,13 +5541,13 @@
         <v>994660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1654</v>
@@ -5574,18 +5556,18 @@
         <v>1749007</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5597,13 +5579,13 @@
         <v>63316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>393</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5612,13 +5594,13 @@
         <v>65790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -5627,13 +5609,13 @@
         <v>129106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5630,13 @@
         <v>326473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -5663,13 +5645,13 @@
         <v>276239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>404</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -5678,13 +5660,13 @@
         <v>602712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5681,13 @@
         <v>849614</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>601</v>
@@ -5714,13 +5696,13 @@
         <v>629843</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>1401</v>
@@ -5729,13 +5711,13 @@
         <v>1479458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5732,13 @@
         <v>813852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>925</v>
@@ -5765,13 +5747,13 @@
         <v>954222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>1695</v>
@@ -5780,13 +5762,13 @@
         <v>1768073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5783,13 @@
         <v>23130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5816,13 +5798,13 @@
         <v>62206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -5834,10 +5816,10 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5834,13 @@
         <v>2076385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1908</v>
@@ -5867,13 +5849,13 @@
         <v>1988300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3860</v>
@@ -5882,18 +5864,18 @@
         <v>4064685</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5905,13 +5887,13 @@
         <v>13992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>433</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5920,13 +5902,13 @@
         <v>25408</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -5935,13 +5917,13 @@
         <v>39399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5938,13 @@
         <v>61185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -5971,13 +5953,13 @@
         <v>50097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5986,13 +5968,13 @@
         <v>111282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +5989,13 @@
         <v>219102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -6022,13 +6004,13 @@
         <v>136022</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M18" s="7">
         <v>331</v>
@@ -6037,13 +6019,13 @@
         <v>355124</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6040,13 @@
         <v>249875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>316</v>
@@ -6073,13 +6055,13 @@
         <v>326834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>546</v>
@@ -6088,13 +6070,13 @@
         <v>576709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,10 +6094,10 @@
         <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>466</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6124,13 +6106,13 @@
         <v>10778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -6139,13 +6121,13 @@
         <v>13511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6142,13 @@
         <v>546886</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -6175,13 +6157,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -6190,13 +6172,13 @@
         <v>1096026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6195,13 @@
         <v>120434</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>471</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -6228,13 +6210,13 @@
         <v>202214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>293</v>
@@ -6243,13 +6225,13 @@
         <v>322648</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6246,13 @@
         <v>555598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>566</v>
@@ -6279,13 +6261,13 @@
         <v>622546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>1090</v>
@@ -6294,13 +6276,13 @@
         <v>1178143</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6297,13 @@
         <v>1425230</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>1051</v>
@@ -6330,13 +6312,13 @@
         <v>1117263</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>2417</v>
@@ -6345,13 +6327,13 @@
         <v>2542493</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6348,13 @@
         <v>1246639</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>1450</v>
@@ -6381,13 +6363,13 @@
         <v>1508604</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>2631</v>
@@ -6399,10 +6381,10 @@
         <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6399,13 @@
         <v>29717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>508</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>509</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>504</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -6432,13 +6414,13 @@
         <v>81474</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -6447,13 +6429,13 @@
         <v>111191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>15</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>509</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6450,13 @@
         <v>3377618</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3326</v>
@@ -6483,13 +6465,13 @@
         <v>3532100</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6541</v>
@@ -6498,18 +6480,18 @@
         <v>6909718</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAABDEC-DEB4-4115-A768-478F42E34AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630A6B26-1C53-477F-9506-1FFED7790DDB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6545,7 +6527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6652,13 +6634,13 @@
         <v>26013</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>435</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -6667,13 +6649,13 @@
         <v>72114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
@@ -6682,13 +6664,13 @@
         <v>98126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6685,13 @@
         <v>131191</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -6718,13 +6700,13 @@
         <v>213616</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M5" s="7">
         <v>544</v>
@@ -6733,13 +6715,13 @@
         <v>344807</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6736,13 @@
         <v>258040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>529</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H6" s="7">
         <v>595</v>
@@ -6769,13 +6751,13 @@
         <v>356124</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M6" s="7">
         <v>927</v>
@@ -6784,13 +6766,13 @@
         <v>614163</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6787,13 @@
         <v>120675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="H7" s="7">
         <v>305</v>
@@ -6820,13 +6802,13 @@
         <v>187864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M7" s="7">
         <v>458</v>
@@ -6835,13 +6817,13 @@
         <v>308539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6838,13 @@
         <v>5716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>546</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -6871,13 +6853,13 @@
         <v>6235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>549</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>550</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6886,13 +6868,13 @@
         <v>11952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>553</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6889,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6922,13 +6904,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6937,18 +6919,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6960,13 +6942,13 @@
         <v>27658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>551</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -6975,13 +6957,13 @@
         <v>56212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -6990,13 +6972,13 @@
         <v>83870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>555</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +6993,13 @@
         <v>402484</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H11" s="7">
         <v>475</v>
@@ -7026,13 +7008,13 @@
         <v>424287</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -7041,13 +7023,13 @@
         <v>826770</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,28 +7044,28 @@
         <v>920481</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>1035</v>
       </c>
       <c r="I12" s="7">
-        <v>688813</v>
+        <v>688814</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M12" s="7">
         <v>1955</v>
@@ -7092,13 +7074,13 @@
         <v>1609295</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,28 +7095,28 @@
         <v>785760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>576</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H13" s="7">
         <v>1289</v>
       </c>
       <c r="I13" s="7">
-        <v>1016043</v>
+        <v>1016044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>1960</v>
@@ -7143,13 +7125,13 @@
         <v>1801804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>582</v>
+        <v>424</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7146,13 @@
         <v>25639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -7179,13 +7161,13 @@
         <v>64165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>587</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>588</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7194,13 +7176,13 @@
         <v>89804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,28 +7197,28 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4913</v>
@@ -7245,18 +7227,18 @@
         <v>4411543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7268,13 +7250,13 @@
         <v>11653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>593</v>
+        <v>475</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7283,13 +7265,13 @@
         <v>21356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -7298,13 +7280,13 @@
         <v>33008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7301,13 @@
         <v>84667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>599</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -7334,13 +7316,13 @@
         <v>71830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>594</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -7349,13 +7331,13 @@
         <v>156498</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7352,13 @@
         <v>290837</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>344</v>
+        <v>600</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -7385,13 +7367,13 @@
         <v>180251</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="M18" s="7">
         <v>577</v>
@@ -7400,13 +7382,13 @@
         <v>471089</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7403,13 @@
         <v>284806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H19" s="7">
         <v>572</v>
@@ -7436,13 +7418,13 @@
         <v>426620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="M19" s="7">
         <v>847</v>
@@ -7451,13 +7433,13 @@
         <v>711427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7454,13 @@
         <v>1076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7487,13 +7469,13 @@
         <v>13828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>619</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>624</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -7502,13 +7484,13 @@
         <v>14905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>626</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,13 +7505,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7538,13 +7520,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7553,13 +7535,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7558,13 @@
         <v>65323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H22" s="7">
         <v>231</v>
@@ -7591,13 +7573,13 @@
         <v>149681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>629</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -7606,13 +7588,13 @@
         <v>215005</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>633</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>634</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7609,13 @@
         <v>618341</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
@@ -7642,13 +7624,13 @@
         <v>709734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>632</v>
       </c>
       <c r="M23" s="7">
         <v>1572</v>
@@ -7657,13 +7639,13 @@
         <v>1328075</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,16 +7657,16 @@
         <v>1554</v>
       </c>
       <c r="D24" s="7">
-        <v>1469358</v>
+        <v>1469357</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>637</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H24" s="7">
         <v>1905</v>
@@ -7693,13 +7675,13 @@
         <v>1225189</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="M24" s="7">
         <v>3459</v>
@@ -7708,13 +7690,13 @@
         <v>2694546</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,16 +7708,16 @@
         <v>1099</v>
       </c>
       <c r="D25" s="7">
-        <v>1191242</v>
+        <v>1191241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="H25" s="7">
         <v>2166</v>
@@ -7744,13 +7726,13 @@
         <v>1630527</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="M25" s="7">
         <v>3265</v>
@@ -7759,13 +7741,13 @@
         <v>2821769</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>658</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,10 +7765,10 @@
         <v>51</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>660</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>652</v>
       </c>
       <c r="H26" s="7">
         <v>89</v>
@@ -7795,13 +7777,13 @@
         <v>84229</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>587</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -7810,13 +7792,13 @@
         <v>116660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>654</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,16 +7810,16 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5352</v>
@@ -7846,33 +7828,33 @@
         <v>3799360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5467A622-BA0C-4EA8-B744-9E5E748C1516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{482A11E5-CC3B-4156-A230-E2D184D12B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3F27580-7EF2-49DE-9E54-CD4988760BB2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23B70258-EDDA-4492-B20D-2500479419CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="664">
   <si>
     <t>Índice de masa corporal (recodificación OMS) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1933 +77,1954 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>Sobrepeso</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>Bajo peso</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>Obesidad</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>Sobrepeso</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>Bajo peso</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
   </si>
   <si>
     <t>1,31%</t>
@@ -2421,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1090C36C-E7E1-46D8-AE10-7374382FAA42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8919667C-D38E-4EF8-88A4-25367B4C2636}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2785,7 +2806,7 @@
         <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2821,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2815,13 +2836,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2830,18 +2851,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2853,13 +2874,13 @@
         <v>8839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2868,13 +2889,13 @@
         <v>12368</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2883,13 +2904,13 @@
         <v>21207</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3084,7 @@
         <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -3072,13 +3093,13 @@
         <v>53728</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -3087,13 +3108,13 @@
         <v>62200</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,16 +3126,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3123,13 +3144,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3138,18 +3159,18 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3161,13 +3182,13 @@
         <v>4443</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3176,13 +3197,13 @@
         <v>3823</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3191,13 +3212,13 @@
         <v>8266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3233,13 @@
         <v>50931</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -3227,13 +3248,13 @@
         <v>31877</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -3242,13 +3263,13 @@
         <v>82809</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3284,13 @@
         <v>245463</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -3278,13 +3299,13 @@
         <v>98232</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>332</v>
@@ -3293,13 +3314,13 @@
         <v>343695</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3335,13 @@
         <v>250571</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>305</v>
@@ -3329,13 +3350,13 @@
         <v>321880</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>544</v>
@@ -3344,13 +3365,13 @@
         <v>572450</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -3380,13 +3401,13 @@
         <v>20600</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3395,13 +3416,13 @@
         <v>20599</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3437,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3431,13 +3452,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3446,13 +3467,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3493,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>150</v>
@@ -3487,10 +3508,10 @@
         <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -3499,13 +3520,13 @@
         <v>78683</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3541,13 @@
         <v>395452</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>483</v>
@@ -3535,13 +3556,13 @@
         <v>497311</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>868</v>
@@ -3550,13 +3571,13 @@
         <v>892763</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3592,13 @@
         <v>1529093</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>1057</v>
@@ -3586,13 +3607,13 @@
         <v>1077732</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>2576</v>
@@ -3601,13 +3622,13 @@
         <v>2606825</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,16 +3640,16 @@
         <v>1260</v>
       </c>
       <c r="D25" s="7">
-        <v>1301200</v>
+        <v>1301199</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1628</v>
@@ -3637,13 +3658,13 @@
         <v>1670275</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>2888</v>
@@ -3652,13 +3673,13 @@
         <v>2971474</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3694,13 @@
         <v>18335</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -3688,13 +3709,13 @@
         <v>87661</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -3703,13 +3724,13 @@
         <v>105996</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,16 +3742,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3739,13 +3760,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
@@ -3754,18 +3775,18 @@
         <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D594A6BD-DF3A-4AC5-9559-CDB89FE3094C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F54C66-2467-4D0D-89BB-2331CD209928}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3908,13 +3929,13 @@
         <v>33082</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3923,13 +3944,13 @@
         <v>101140</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
@@ -3938,13 +3959,13 @@
         <v>134222</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3980,13 @@
         <v>233536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>403</v>
@@ -3974,13 +3995,13 @@
         <v>428399</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>617</v>
@@ -3989,13 +4010,13 @@
         <v>661935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4031,13 @@
         <v>454900</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>468</v>
@@ -4025,13 +4046,13 @@
         <v>500402</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>891</v>
@@ -4040,13 +4061,13 @@
         <v>955302</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4082,13 @@
         <v>245043</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -4076,13 +4097,13 @@
         <v>303789</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>510</v>
@@ -4091,13 +4112,13 @@
         <v>548832</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4133,13 @@
         <v>8082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4127,13 +4148,13 @@
         <v>4067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4142,13 +4163,13 @@
         <v>12149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4184,13 @@
         <v>974643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1247</v>
@@ -4178,13 +4199,13 @@
         <v>1337796</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2155</v>
@@ -4193,18 +4214,18 @@
         <v>2312440</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4216,13 +4237,13 @@
         <v>23079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4231,13 +4252,13 @@
         <v>45545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4246,13 +4267,13 @@
         <v>68624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4288,13 @@
         <v>271257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>239</v>
@@ -4282,13 +4303,13 @@
         <v>260429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
@@ -4297,13 +4318,13 @@
         <v>531687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4339,13 @@
         <v>957977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>482</v>
@@ -4333,13 +4354,13 @@
         <v>525806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>1383</v>
@@ -4348,13 +4369,13 @@
         <v>1483784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4390,13 @@
         <v>689624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>808</v>
@@ -4384,13 +4405,13 @@
         <v>861722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>1469</v>
@@ -4399,13 +4420,13 @@
         <v>1551346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4441,13 @@
         <v>22020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4435,13 +4456,13 @@
         <v>64301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4450,13 +4471,13 @@
         <v>86321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4492,13 @@
         <v>1963957</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1635</v>
@@ -4486,13 +4507,13 @@
         <v>1757803</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3491</v>
@@ -4501,18 +4522,18 @@
         <v>3721760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4524,13 +4545,13 @@
         <v>9248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4539,13 +4560,13 @@
         <v>4083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4554,13 +4575,13 @@
         <v>13331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4596,13 @@
         <v>49615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4590,13 +4611,13 @@
         <v>28124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4605,13 +4626,13 @@
         <v>77739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4647,13 @@
         <v>226736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -4641,13 +4662,13 @@
         <v>105078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>306</v>
@@ -4656,13 +4677,13 @@
         <v>331814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4698,13 @@
         <v>194628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -4692,13 +4713,13 @@
         <v>305925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -4707,13 +4728,13 @@
         <v>500553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4749,13 @@
         <v>954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -4743,13 +4764,13 @@
         <v>15421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -4758,13 +4779,13 @@
         <v>16375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4800,13 @@
         <v>481181</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4794,13 +4815,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>850</v>
@@ -4809,13 +4830,13 @@
         <v>939812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4853,13 @@
         <v>65409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>142</v>
@@ -4847,13 +4868,13 @@
         <v>150767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>201</v>
@@ -4862,13 +4883,13 @@
         <v>216177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4904,13 @@
         <v>554408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>668</v>
@@ -4898,13 +4919,13 @@
         <v>716952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -4913,13 +4934,13 @@
         <v>1271361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4955,13 @@
         <v>1639614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H24" s="7">
         <v>1046</v>
@@ -4949,13 +4970,13 @@
         <v>1131286</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M24" s="7">
         <v>2580</v>
@@ -4964,13 +4985,13 @@
         <v>2770900</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5006,13 @@
         <v>1129295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>1356</v>
@@ -5000,13 +5021,13 @@
         <v>1471436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>2425</v>
@@ -5015,13 +5036,13 @@
         <v>2600731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5057,13 @@
         <v>31056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -5051,13 +5072,13 @@
         <v>83788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5066,13 +5087,13 @@
         <v>114844</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5108,13 @@
         <v>3419782</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3294</v>
@@ -5102,13 +5123,13 @@
         <v>3554230</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6496</v>
@@ -5117,18 +5138,18 @@
         <v>6974012</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5147,7 +5168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A86A48-7F45-478B-A3AA-1A0981EF80D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBA0E56-F75A-439C-B50A-1D13132B15C5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5164,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5271,13 +5292,13 @@
         <v>43127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -5286,13 +5307,13 @@
         <v>111015</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -5301,13 +5322,13 @@
         <v>154143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5343,13 @@
         <v>167939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -5337,13 +5358,13 @@
         <v>296210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>430</v>
@@ -5352,13 +5373,13 @@
         <v>464149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5394,13 @@
         <v>356514</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>320</v>
@@ -5388,13 +5409,13 @@
         <v>351398</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>685</v>
@@ -5403,13 +5424,13 @@
         <v>707911</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5445,13 @@
         <v>182912</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H7" s="7">
         <v>209</v>
@@ -5439,13 +5460,13 @@
         <v>227548</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -5454,13 +5475,13 @@
         <v>410460</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5496,13 @@
         <v>3854</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5490,13 +5511,13 @@
         <v>8490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5505,13 +5526,13 @@
         <v>12344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>396</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>397</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5547,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>892</v>
@@ -5541,13 +5562,13 @@
         <v>994660</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1654</v>
@@ -5556,18 +5577,18 @@
         <v>1749007</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5579,13 +5600,13 @@
         <v>63316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -5594,13 +5615,13 @@
         <v>65790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -5609,13 +5630,13 @@
         <v>129106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5651,13 @@
         <v>326473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -5645,13 +5666,13 @@
         <v>276239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>405</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -5660,13 +5681,13 @@
         <v>602712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5702,13 @@
         <v>849614</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>601</v>
@@ -5696,13 +5717,13 @@
         <v>629843</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>1401</v>
@@ -5711,13 +5732,13 @@
         <v>1479458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5753,13 @@
         <v>813852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>925</v>
@@ -5747,13 +5768,13 @@
         <v>954222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M13" s="7">
         <v>1695</v>
@@ -5762,13 +5783,13 @@
         <v>1768073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5804,13 @@
         <v>23130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5798,13 +5819,13 @@
         <v>62206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -5816,10 +5837,10 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5855,13 @@
         <v>2076385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1908</v>
@@ -5849,13 +5870,13 @@
         <v>1988300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3860</v>
@@ -5864,18 +5885,18 @@
         <v>4064685</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5887,13 +5908,13 @@
         <v>13992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5902,13 +5923,13 @@
         <v>25408</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>438</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -5917,13 +5938,13 @@
         <v>39399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5959,13 @@
         <v>61185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>446</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -5953,13 +5974,13 @@
         <v>50097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5968,13 +5989,13 @@
         <v>111282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,13 +6010,13 @@
         <v>219102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>454</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -6004,13 +6025,13 @@
         <v>136022</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M18" s="7">
         <v>331</v>
@@ -6019,13 +6040,13 @@
         <v>355124</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6061,13 @@
         <v>249875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>316</v>
@@ -6055,13 +6076,13 @@
         <v>326834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>546</v>
@@ -6070,13 +6091,13 @@
         <v>576709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,10 +6115,10 @@
         <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6106,13 +6127,13 @@
         <v>10778</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -6121,13 +6142,13 @@
         <v>13511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6163,13 @@
         <v>546886</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -6157,13 +6178,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1027</v>
@@ -6172,13 +6193,13 @@
         <v>1096026</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6216,13 @@
         <v>120434</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -6210,13 +6231,13 @@
         <v>202214</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>293</v>
@@ -6225,13 +6246,13 @@
         <v>322648</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6267,13 @@
         <v>555598</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>566</v>
@@ -6261,13 +6282,13 @@
         <v>622546</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>1090</v>
@@ -6276,13 +6297,13 @@
         <v>1178143</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6318,13 @@
         <v>1425230</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>494</v>
+        <v>87</v>
       </c>
       <c r="H24" s="7">
         <v>1051</v>
@@ -6312,13 +6333,13 @@
         <v>1117263</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M24" s="7">
         <v>2417</v>
@@ -6327,13 +6348,13 @@
         <v>2542493</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6369,13 @@
         <v>1246639</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>1450</v>
@@ -6363,13 +6384,13 @@
         <v>1508604</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>2631</v>
@@ -6378,13 +6399,13 @@
         <v>2755242</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6420,13 @@
         <v>29717</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -6414,13 +6435,13 @@
         <v>81474</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -6429,13 +6450,13 @@
         <v>111191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>511</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6471,13 @@
         <v>3377618</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3326</v>
@@ -6465,13 +6486,13 @@
         <v>3532100</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6541</v>
@@ -6480,18 +6501,18 @@
         <v>6909718</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6510,7 +6531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630A6B26-1C53-477F-9506-1FFED7790DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1920BB1-ACF4-461E-9267-C0027B088E34}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6527,7 +6548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6634,13 +6655,13 @@
         <v>26013</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -6649,13 +6670,13 @@
         <v>72114</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
@@ -6664,13 +6685,13 @@
         <v>98126</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6706,13 @@
         <v>131191</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -6700,13 +6721,13 @@
         <v>213616</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M5" s="7">
         <v>544</v>
@@ -6715,13 +6736,13 @@
         <v>344807</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6757,13 @@
         <v>258040</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="H6" s="7">
         <v>595</v>
@@ -6751,13 +6772,13 @@
         <v>356124</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M6" s="7">
         <v>927</v>
@@ -6766,13 +6787,13 @@
         <v>614163</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6808,13 @@
         <v>120675</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>541</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H7" s="7">
         <v>305</v>
@@ -6802,13 +6823,13 @@
         <v>187864</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M7" s="7">
         <v>458</v>
@@ -6817,13 +6838,13 @@
         <v>308539</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6859,7 @@
         <v>5716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>547</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>548</v>
@@ -6853,13 +6874,13 @@
         <v>6235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6868,10 +6889,10 @@
         <v>11952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>551</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>151</v>
@@ -6889,13 +6910,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -6904,13 +6925,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -6919,18 +6940,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6942,10 +6963,10 @@
         <v>27658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>551</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -6957,13 +6978,13 @@
         <v>56212</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -6972,13 +6993,13 @@
         <v>83870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>555</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,13 +7014,13 @@
         <v>402484</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H11" s="7">
         <v>475</v>
@@ -7008,13 +7029,13 @@
         <v>424287</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -7023,13 +7044,13 @@
         <v>826770</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7065,13 @@
         <v>920481</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H12" s="7">
         <v>1035</v>
@@ -7059,13 +7080,13 @@
         <v>688814</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M12" s="7">
         <v>1955</v>
@@ -7074,13 +7095,13 @@
         <v>1609295</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7116,13 @@
         <v>785760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>572</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H13" s="7">
         <v>1289</v>
@@ -7110,13 +7131,13 @@
         <v>1016044</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>1960</v>
@@ -7128,10 +7149,10 @@
         <v>578</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>424</v>
+        <v>579</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,10 +7167,10 @@
         <v>25639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>581</v>
+        <v>508</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>582</v>
@@ -7161,13 +7182,13 @@
         <v>64165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>583</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>584</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7176,13 +7197,13 @@
         <v>89804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7218,13 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2921</v>
@@ -7212,13 +7233,13 @@
         <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4913</v>
@@ -7227,18 +7248,18 @@
         <v>4411543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7250,13 +7271,13 @@
         <v>11653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>475</v>
+        <v>589</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7265,13 +7286,13 @@
         <v>21356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -7280,13 +7301,13 @@
         <v>33008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>594</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7322,13 @@
         <v>84667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>596</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -7316,13 +7337,13 @@
         <v>71830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -7331,13 +7352,13 @@
         <v>156498</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7373,13 @@
         <v>290837</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -7367,13 +7388,13 @@
         <v>180251</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="M18" s="7">
         <v>577</v>
@@ -7382,13 +7403,13 @@
         <v>471089</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7424,13 @@
         <v>284806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="H19" s="7">
         <v>572</v>
@@ -7418,13 +7439,13 @@
         <v>426620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="M19" s="7">
         <v>847</v>
@@ -7433,13 +7454,13 @@
         <v>711427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7475,13 @@
         <v>1076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7469,13 +7490,13 @@
         <v>13828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -7484,13 +7505,13 @@
         <v>14905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>509</v>
+        <v>627</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,13 +7526,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -7520,13 +7541,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -7535,13 +7556,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7579,13 @@
         <v>65323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>629</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="H22" s="7">
         <v>231</v>
@@ -7573,13 +7594,13 @@
         <v>149681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>400</v>
+        <v>631</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -7588,13 +7609,13 @@
         <v>215005</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,13 +7630,13 @@
         <v>618341</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
@@ -7624,13 +7645,13 @@
         <v>709734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="M23" s="7">
         <v>1572</v>
@@ -7639,13 +7660,13 @@
         <v>1328075</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7681,13 @@
         <v>1469357</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>1905</v>
@@ -7675,13 +7696,13 @@
         <v>1225189</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>639</v>
+        <v>373</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>3459</v>
@@ -7690,13 +7711,13 @@
         <v>2694546</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7732,13 @@
         <v>1191241</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>2166</v>
@@ -7726,13 +7747,13 @@
         <v>1630527</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="M25" s="7">
         <v>3265</v>
@@ -7741,13 +7762,13 @@
         <v>2821769</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,10 +7786,10 @@
         <v>51</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="H26" s="7">
         <v>89</v>
@@ -7777,13 +7798,13 @@
         <v>84229</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>661</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -7792,13 +7813,13 @@
         <v>116660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>654</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7834,13 @@
         <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5352</v>
@@ -7828,13 +7849,13 @@
         <v>3799360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8716</v>
@@ -7843,18 +7864,18 @@
         <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{482A11E5-CC3B-4156-A230-E2D184D12B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE7A498-E218-4071-AFA6-06BB24C92CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23B70258-EDDA-4492-B20D-2500479419CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{706D28A7-16A0-4969-9162-66E3E209F6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="663">
   <si>
     <t>Índice de masa corporal (recodificación OMS) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1960 +77,1957 @@
     <t>1,86%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>Obesidad</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>Sobrepeso</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>Bajo peso</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>Obesidad</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>Sobrepeso</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>Bajo peso</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>Índice de masa corporal (recodificación OMS) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Índice de masa corporal (recodificación OMS) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8919667C-D38E-4EF8-88A4-25367B4C2636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3727668-A411-4ADA-977D-5C68FA559F4C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2880,7 +2877,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2889,13 +2886,13 @@
         <v>12368</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2907,10 +2904,10 @@
         <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3081,7 @@
         <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -3126,7 +3123,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3392,7 +3389,7 @@
         <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -3401,13 +3398,13 @@
         <v>20600</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3416,13 +3413,13 @@
         <v>20599</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,10 +3490,10 @@
         <v>57</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3505,13 +3502,13 @@
         <v>46219</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -3520,7 +3517,7 @@
         <v>78683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>153</v>
@@ -3568,7 +3565,7 @@
         <v>868</v>
       </c>
       <c r="N23" s="7">
-        <v>892763</v>
+        <v>892762</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>161</v>
@@ -3640,7 +3637,7 @@
         <v>1260</v>
       </c>
       <c r="D25" s="7">
-        <v>1301199</v>
+        <v>1301200</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>173</v>
@@ -3727,10 +3724,10 @@
         <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,7 +3739,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3772,7 +3769,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3786,7 +3783,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F54C66-2467-4D0D-89BB-2331CD209928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7364423C-3254-4A0F-91BA-F234A1E83830}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3822,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3929,13 +3926,13 @@
         <v>33082</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3944,13 +3941,13 @@
         <v>101140</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
@@ -3959,13 +3956,13 @@
         <v>134222</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,10 +4133,10 @@
         <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4148,13 +4145,13 @@
         <v>4067</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4163,13 +4160,13 @@
         <v>12149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4234,13 @@
         <v>23079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4255,10 +4252,10 @@
         <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4267,13 +4264,13 @@
         <v>68624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4285,13 @@
         <v>271257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>239</v>
@@ -4303,13 +4300,13 @@
         <v>260429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>491</v>
@@ -4318,13 +4315,13 @@
         <v>531687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4336,13 @@
         <v>957977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>482</v>
@@ -4354,13 +4351,13 @@
         <v>525806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>1383</v>
@@ -4369,13 +4366,13 @@
         <v>1483784</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4387,13 @@
         <v>689624</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>808</v>
@@ -4405,13 +4402,13 @@
         <v>861722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>1469</v>
@@ -4420,13 +4417,13 @@
         <v>1551346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4438,13 @@
         <v>22020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4456,13 +4453,13 @@
         <v>64301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4471,13 +4468,13 @@
         <v>86321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4542,13 @@
         <v>9248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4560,13 +4557,13 @@
         <v>4083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4575,13 +4572,13 @@
         <v>13331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4593,13 @@
         <v>49615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4611,13 +4608,13 @@
         <v>28124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4626,13 +4623,13 @@
         <v>77739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4644,13 @@
         <v>226736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -4662,13 +4659,13 @@
         <v>105078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>306</v>
@@ -4677,13 +4674,13 @@
         <v>331814</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4695,13 @@
         <v>194628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>271</v>
@@ -4713,13 +4710,13 @@
         <v>305925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>446</v>
@@ -4728,13 +4725,13 @@
         <v>500553</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4746,13 @@
         <v>954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -4764,13 +4761,13 @@
         <v>15421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -4779,13 +4776,13 @@
         <v>16375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4850,13 @@
         <v>65409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>142</v>
@@ -4868,13 +4865,13 @@
         <v>150767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>201</v>
@@ -4883,13 +4880,13 @@
         <v>216177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4901,13 @@
         <v>554408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>668</v>
@@ -4919,13 +4916,13 @@
         <v>716952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -4934,13 +4931,13 @@
         <v>1271361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4952,13 @@
         <v>1639614</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>1046</v>
@@ -4970,13 +4967,13 @@
         <v>1131286</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>2580</v>
@@ -4985,13 +4982,13 @@
         <v>2770900</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5003,13 @@
         <v>1129295</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>1356</v>
@@ -5021,13 +5018,13 @@
         <v>1471436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>2425</v>
@@ -5036,13 +5033,13 @@
         <v>2600731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5054,13 @@
         <v>31056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>82</v>
@@ -5072,13 +5069,13 @@
         <v>83788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -5087,13 +5084,13 @@
         <v>114844</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>56</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,7 +5146,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +5165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBA0E56-F75A-439C-B50A-1D13132B15C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADAF3F2-954A-4673-9F64-4A95533E0F31}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5185,7 +5182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5292,10 +5289,10 @@
         <v>43127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>354</v>
@@ -5379,7 +5376,7 @@
         <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,10 +5409,10 @@
         <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>685</v>
@@ -5424,13 +5421,13 @@
         <v>707911</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5442,13 @@
         <v>182912</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H7" s="7">
         <v>209</v>
@@ -5460,13 +5457,13 @@
         <v>227548</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -5475,13 +5472,13 @@
         <v>410460</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5493,13 @@
         <v>3854</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5511,13 +5508,13 @@
         <v>8490</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5526,13 +5523,13 @@
         <v>12344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5618,7 @@
         <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -5630,13 +5627,13 @@
         <v>129106</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5648,13 @@
         <v>326473</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>258</v>
@@ -5666,13 +5663,13 @@
         <v>276239</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -5681,13 +5678,13 @@
         <v>602712</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5699,13 @@
         <v>849614</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H12" s="7">
         <v>601</v>
@@ -5717,13 +5714,13 @@
         <v>629843</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>1401</v>
@@ -5732,13 +5729,13 @@
         <v>1479458</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5750,13 @@
         <v>813852</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>925</v>
@@ -5768,13 +5765,13 @@
         <v>954222</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M13" s="7">
         <v>1695</v>
@@ -5783,13 +5780,13 @@
         <v>1768073</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5801,13 @@
         <v>23130</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5819,10 +5816,10 @@
         <v>62206</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>431</v>
@@ -5840,7 +5837,7 @@
         <v>432</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5905,13 @@
         <v>13992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>435</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5923,13 +5920,13 @@
         <v>25408</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -5938,13 +5935,13 @@
         <v>39399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5956,13 @@
         <v>61185</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>440</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -5974,13 +5971,13 @@
         <v>50097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5989,13 +5986,13 @@
         <v>111282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6007,13 @@
         <v>219102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -6025,13 +6022,13 @@
         <v>136022</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M18" s="7">
         <v>331</v>
@@ -6040,13 +6037,13 @@
         <v>355124</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6058,13 @@
         <v>249875</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>316</v>
@@ -6076,13 +6073,13 @@
         <v>326834</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>546</v>
@@ -6091,13 +6088,13 @@
         <v>576709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,10 +6112,10 @@
         <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6130,10 +6127,10 @@
         <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -6142,13 +6139,13 @@
         <v>13511</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6213,13 @@
         <v>120434</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -6231,13 +6228,13 @@
         <v>202214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>293</v>
@@ -6246,13 +6243,13 @@
         <v>322648</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6264,13 @@
         <v>555598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H23" s="7">
         <v>566</v>
@@ -6282,13 +6279,13 @@
         <v>622546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M23" s="7">
         <v>1090</v>
@@ -6297,13 +6294,13 @@
         <v>1178143</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6315,13 @@
         <v>1425230</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>87</v>
+        <v>489</v>
       </c>
       <c r="H24" s="7">
         <v>1051</v>
@@ -6333,13 +6330,13 @@
         <v>1117263</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M24" s="7">
         <v>2417</v>
@@ -6348,13 +6345,13 @@
         <v>2542493</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6366,13 @@
         <v>1246639</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H25" s="7">
         <v>1450</v>
@@ -6384,13 +6381,13 @@
         <v>1508604</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>2631</v>
@@ -6399,13 +6396,13 @@
         <v>2755242</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6417,13 @@
         <v>29717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>508</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>504</v>
       </c>
       <c r="H26" s="7">
         <v>81</v>
@@ -6435,13 +6432,13 @@
         <v>81474</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -6450,13 +6447,13 @@
         <v>111191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,7 +6509,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6531,7 +6528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1920BB1-ACF4-461E-9267-C0027B088E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9298880C-21ED-4986-BF29-C6C520815F1C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6548,7 +6545,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6655,13 +6652,13 @@
         <v>26013</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -6670,13 +6667,13 @@
         <v>72114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
@@ -6685,13 +6682,13 @@
         <v>98126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6703,13 @@
         <v>131191</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
@@ -6721,13 +6718,13 @@
         <v>213616</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="M5" s="7">
         <v>544</v>
@@ -6736,13 +6733,13 @@
         <v>344807</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6754,13 @@
         <v>258040</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H6" s="7">
         <v>595</v>
@@ -6772,13 +6769,13 @@
         <v>356124</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M6" s="7">
         <v>927</v>
@@ -6787,13 +6784,13 @@
         <v>614163</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6805,13 @@
         <v>120675</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H7" s="7">
         <v>305</v>
@@ -6823,13 +6820,13 @@
         <v>187864</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>458</v>
@@ -6838,13 +6835,13 @@
         <v>308539</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6856,13 @@
         <v>5716</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -6874,13 +6871,13 @@
         <v>6235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>275</v>
+        <v>549</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>550</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -6889,13 +6886,13 @@
         <v>11952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>387</v>
+        <v>553</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6960,13 @@
         <v>27658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>507</v>
+        <v>554</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -6978,13 +6975,13 @@
         <v>56212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>555</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -6996,10 +6993,10 @@
         <v>101</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7011,13 @@
         <v>402484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H11" s="7">
         <v>475</v>
@@ -7029,13 +7026,13 @@
         <v>424287</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -7044,13 +7041,13 @@
         <v>826770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,28 +7062,28 @@
         <v>920481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>1035</v>
       </c>
       <c r="I12" s="7">
-        <v>688814</v>
+        <v>688813</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M12" s="7">
         <v>1955</v>
@@ -7095,13 +7092,13 @@
         <v>1609295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>130</v>
+        <v>573</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,28 +7113,28 @@
         <v>785760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H13" s="7">
         <v>1289</v>
       </c>
       <c r="I13" s="7">
-        <v>1016044</v>
+        <v>1016043</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>1960</v>
@@ -7146,13 +7143,13 @@
         <v>1801804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7164,13 @@
         <v>25639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>508</v>
+        <v>585</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -7182,13 +7179,13 @@
         <v>64165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -7197,13 +7194,13 @@
         <v>89804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,7 +7227,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7271,13 +7268,13 @@
         <v>11653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -7286,13 +7283,13 @@
         <v>21356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -7301,13 +7298,13 @@
         <v>33008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>594</v>
+        <v>432</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7319,13 @@
         <v>84667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -7337,13 +7334,13 @@
         <v>71830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>599</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -7352,13 +7349,13 @@
         <v>156498</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,7 +7370,7 @@
         <v>290837</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>605</v>
+        <v>344</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>606</v>
@@ -7475,13 +7472,13 @@
         <v>1076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>623</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7490,13 +7487,13 @@
         <v>13828</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -7505,13 +7502,13 @@
         <v>14905</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>627</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,13 +7576,13 @@
         <v>65323</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="H22" s="7">
         <v>231</v>
@@ -7594,13 +7591,13 @@
         <v>149681</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -7609,13 +7606,13 @@
         <v>215005</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,7 +7648,7 @@
         <v>639</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>640</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>1572</v>
@@ -7660,13 +7657,13 @@
         <v>1328075</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,16 +7675,16 @@
         <v>1554</v>
       </c>
       <c r="D24" s="7">
-        <v>1469357</v>
+        <v>1469358</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>1905</v>
@@ -7696,13 +7693,13 @@
         <v>1225189</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>645</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>3459</v>
@@ -7711,13 +7708,13 @@
         <v>2694546</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7726,13 @@
         <v>1099</v>
       </c>
       <c r="D25" s="7">
-        <v>1191241</v>
+        <v>1191242</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>653</v>
@@ -7765,10 +7762,10 @@
         <v>657</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>658</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,10 +7783,10 @@
         <v>51</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>660</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>659</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>89</v>
@@ -7798,13 +7795,13 @@
         <v>84229</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>661</v>
+        <v>587</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
@@ -7813,13 +7810,13 @@
         <v>116660</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>662</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>663</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,7 +7828,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7861,7 +7858,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE7A498-E218-4071-AFA6-06BB24C92CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D816D5-4998-4A0E-B75E-8C9EB05A586B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{706D28A7-16A0-4969-9162-66E3E209F6C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3738CDF6-2C23-4840-9662-D7AED649DA51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="662">
   <si>
     <t>Índice de masa corporal (recodificación OMS) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1574,460 +1574,457 @@
     <t>Índice de masa corporal (recodificación OMS) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3727668-A411-4ADA-977D-5C68FA559F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F193231D-BE92-40CF-BB59-7CFCDEB912E8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2692,7 +2689,7 @@
         <v>1069</v>
       </c>
       <c r="N6" s="7">
-        <v>1067314</v>
+        <v>1067313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2845,7 +2842,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3123,7 +3120,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3565,7 +3562,7 @@
         <v>868</v>
       </c>
       <c r="N23" s="7">
-        <v>892762</v>
+        <v>892763</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>161</v>
@@ -3637,7 +3634,7 @@
         <v>1260</v>
       </c>
       <c r="D25" s="7">
-        <v>1301200</v>
+        <v>1301199</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>173</v>
@@ -3739,7 +3736,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3754,7 +3751,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3769,7 +3766,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3802,7 +3799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7364423C-3254-4A0F-91BA-F234A1E83830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A73EDBD-AA9A-42FD-AD18-E764383FB513}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,7 +4037,7 @@
         <v>468</v>
       </c>
       <c r="I6" s="7">
-        <v>500402</v>
+        <v>500403</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>212</v>
@@ -4193,7 +4190,7 @@
         <v>1247</v>
       </c>
       <c r="I9" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -4824,7 +4821,7 @@
         <v>850</v>
       </c>
       <c r="N21" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5165,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADAF3F2-954A-4673-9F64-4A95533E0F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAB157B-6956-4574-9565-8DDDB0823123}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6085,7 +6082,7 @@
         <v>546</v>
       </c>
       <c r="N19" s="7">
-        <v>576709</v>
+        <v>576710</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>462</v>
@@ -6187,7 +6184,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6528,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9298880C-21ED-4986-BF29-C6C520815F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462118C-3EAF-4021-874C-3D63E58DDA6B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6649,46 +6646,46 @@
         <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>26013</v>
+        <v>24310</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>511</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>512</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>72114</v>
+        <v>66503</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M4" s="7">
         <v>172</v>
       </c>
       <c r="N4" s="7">
-        <v>98126</v>
+        <v>90813</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,46 +6697,46 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>131191</v>
+        <v>124503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H5" s="7">
         <v>379</v>
       </c>
       <c r="I5" s="7">
-        <v>213616</v>
+        <v>195501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M5" s="7">
         <v>544</v>
       </c>
       <c r="N5" s="7">
-        <v>344807</v>
+        <v>320005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,46 +6748,46 @@
         <v>332</v>
       </c>
       <c r="D6" s="7">
-        <v>258040</v>
+        <v>246812</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H6" s="7">
         <v>595</v>
       </c>
       <c r="I6" s="7">
-        <v>356124</v>
+        <v>316796</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M6" s="7">
         <v>927</v>
       </c>
       <c r="N6" s="7">
-        <v>614163</v>
+        <v>563608</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,22 +6799,22 @@
         <v>153</v>
       </c>
       <c r="D7" s="7">
-        <v>120675</v>
+        <v>114009</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="H7" s="7">
         <v>305</v>
       </c>
       <c r="I7" s="7">
-        <v>187864</v>
+        <v>171026</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>540</v>
@@ -6832,7 +6829,7 @@
         <v>458</v>
       </c>
       <c r="N7" s="7">
-        <v>308539</v>
+        <v>285035</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>543</v>
@@ -6853,43 +6850,43 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>5716</v>
+        <v>5303</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>6235</v>
+        <v>5682</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>11952</v>
+        <v>10986</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>433</v>
@@ -6904,7 +6901,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6919,7 +6916,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6934,7 +6931,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6957,28 +6954,28 @@
         <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>27658</v>
+        <v>25935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>553</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>554</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>56212</v>
+        <v>74333</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>555</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>556</v>
@@ -6987,16 +6984,16 @@
         <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>83870</v>
+        <v>100268</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>557</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>558</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,46 +7005,46 @@
         <v>357</v>
       </c>
       <c r="D11" s="7">
-        <v>402484</v>
+        <v>582194</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H11" s="7">
         <v>475</v>
       </c>
       <c r="I11" s="7">
-        <v>424287</v>
+        <v>493382</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
       </c>
       <c r="N11" s="7">
-        <v>826770</v>
+        <v>1075576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>565</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,43 +7056,43 @@
         <v>920</v>
       </c>
       <c r="D12" s="7">
-        <v>920481</v>
+        <v>889085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H12" s="7">
         <v>1035</v>
       </c>
       <c r="I12" s="7">
-        <v>688813</v>
+        <v>688278</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M12" s="7">
         <v>1955</v>
       </c>
       <c r="N12" s="7">
-        <v>1609295</v>
+        <v>1577363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>574</v>
+        <v>452</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>575</v>
@@ -7110,7 +7107,7 @@
         <v>671</v>
       </c>
       <c r="D13" s="7">
-        <v>785760</v>
+        <v>762505</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>576</v>
@@ -7125,7 +7122,7 @@
         <v>1289</v>
       </c>
       <c r="I13" s="7">
-        <v>1016043</v>
+        <v>923222</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>579</v>
@@ -7134,22 +7131,22 @@
         <v>580</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="M13" s="7">
         <v>1960</v>
       </c>
       <c r="N13" s="7">
-        <v>1801804</v>
+        <v>1685728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,22 +7158,22 @@
         <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>25639</v>
+        <v>30608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>586</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>64165</v>
+        <v>58609</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>587</v>
@@ -7191,16 +7188,16 @@
         <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>89804</v>
+        <v>89216</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,7 +7209,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7227,7 +7224,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7242,7 +7239,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7265,46 +7262,46 @@
         <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>11653</v>
+        <v>10757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>592</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>21356</v>
+        <v>19511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>595</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
       </c>
       <c r="N16" s="7">
-        <v>33008</v>
+        <v>30269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>597</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>432</v>
+        <v>594</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,46 +7313,46 @@
         <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>84667</v>
+        <v>81547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
       </c>
       <c r="I17" s="7">
-        <v>71830</v>
+        <v>66843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>598</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
       </c>
       <c r="N17" s="7">
-        <v>156498</v>
+        <v>148390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,46 +7364,46 @@
         <v>302</v>
       </c>
       <c r="D18" s="7">
-        <v>290837</v>
+        <v>278928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>344</v>
+        <v>603</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>606</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>180251</v>
+        <v>166115</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M18" s="7">
         <v>577</v>
       </c>
       <c r="N18" s="7">
-        <v>471089</v>
+        <v>445043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,46 +7415,46 @@
         <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>284806</v>
+        <v>274317</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H19" s="7">
         <v>572</v>
       </c>
       <c r="I19" s="7">
-        <v>426620</v>
+        <v>395482</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M19" s="7">
         <v>847</v>
       </c>
       <c r="N19" s="7">
-        <v>711427</v>
+        <v>669800</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,46 +7466,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>13828</v>
+        <v>12512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>624</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
       </c>
       <c r="N20" s="7">
-        <v>14905</v>
+        <v>13585</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>625</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,7 +7517,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7535,7 +7532,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7550,7 +7547,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7573,46 +7570,46 @@
         <v>79</v>
       </c>
       <c r="D22" s="7">
-        <v>65323</v>
+        <v>61002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>623</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H22" s="7">
         <v>231</v>
       </c>
       <c r="I22" s="7">
-        <v>149681</v>
+        <v>160347</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
       </c>
       <c r="N22" s="7">
-        <v>215005</v>
+        <v>221349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>634</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,46 +7621,46 @@
         <v>611</v>
       </c>
       <c r="D23" s="7">
-        <v>618341</v>
+        <v>788244</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
       </c>
       <c r="I23" s="7">
-        <v>709734</v>
+        <v>755726</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>635</v>
       </c>
       <c r="M23" s="7">
         <v>1572</v>
       </c>
       <c r="N23" s="7">
-        <v>1328075</v>
+        <v>1543970</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>641</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,46 +7672,46 @@
         <v>1554</v>
       </c>
       <c r="D24" s="7">
-        <v>1469358</v>
+        <v>1414826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>639</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H24" s="7">
         <v>1905</v>
       </c>
       <c r="I24" s="7">
-        <v>1225189</v>
+        <v>1171189</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M24" s="7">
         <v>3459</v>
       </c>
       <c r="N24" s="7">
-        <v>2694546</v>
+        <v>2586015</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,46 +7723,46 @@
         <v>1099</v>
       </c>
       <c r="D25" s="7">
-        <v>1191242</v>
+        <v>1150832</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>652</v>
+        <v>81</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>2166</v>
       </c>
       <c r="I25" s="7">
-        <v>1630527</v>
+        <v>1489730</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M25" s="7">
         <v>3265</v>
       </c>
       <c r="N25" s="7">
-        <v>2821769</v>
+        <v>2640562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,46 +7774,46 @@
         <v>21</v>
       </c>
       <c r="D26" s="7">
-        <v>32431</v>
+        <v>36984</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>51</v>
+        <v>655</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>657</v>
       </c>
       <c r="H26" s="7">
         <v>89</v>
       </c>
       <c r="I26" s="7">
-        <v>84229</v>
+        <v>76803</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>661</v>
+        <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="M26" s="7">
         <v>110</v>
       </c>
       <c r="N26" s="7">
-        <v>116660</v>
+        <v>113787</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>659</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>277</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,7 +7825,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7843,7 +7840,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7858,7 +7855,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
